--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Desktop/MercuryTour_Selenium/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Automation/Selenium_Java_Cucumber/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>MercuryTourTest_TestNG</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,51 +422,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="2">
         <v>12345678</v>

--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -74,7 +74,7 @@
     <t>MercuryTourTest_TestNG</t>
   </si>
   <si>
-    <t>firefox</t>
+    <t>chrome</t>
   </si>
 </sst>
 </file>

--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -74,7 +74,7 @@
     <t>MercuryTourTest_TestNG</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>htmlunit</t>
   </si>
 </sst>
 </file>

--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Automation/Selenium_Java_Cucumber/test-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MercuryTour" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +69,7 @@
     <t>MercuryTourTest_TestNG</t>
   </si>
   <si>
-    <t>htmlunit</t>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -87,6 +82,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -213,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -390,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,7 +400,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
@@ -414,7 +410,7 @@
     <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -475,5 +471,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>